--- a/__repository/template_import/tbl_location.xlsx
+++ b/__repository/template_import/tbl_location.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Location ID</t>
   </si>
@@ -28,6 +28,9 @@
   </si>
   <si>
     <t>Tahun</t>
+  </si>
+  <si>
+    <t>Revenue</t>
   </si>
 </sst>
 </file>
@@ -383,21 +386,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" customWidth="1"/>
-    <col min="2" max="2" width="28.7109375" customWidth="1"/>
-    <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" customWidth="1"/>
+    <col min="2" max="3" width="28.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -405,9 +408,12 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
